--- a/biology/Zoologie/Le_Coq_de_St-Victor/Le_Coq_de_St-Victor.xlsx
+++ b/biology/Zoologie/Le_Coq_de_St-Victor/Le_Coq_de_St-Victor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coq de St-Victor est un long métrage d'animation québécois pour enfants et en 3D de Pierre Greco[1] sorti le 21 février 2014.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coq de St-Victor est un long métrage d'animation québécois pour enfants et en 3D de Pierre Greco sorti le 21 février 2014.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À St-Victor, le maire s’enorgueillit du dynamisme économique et de la discipline des citoyens de son village. Il attribue l’effervescence de son patelin et donne tout le crédit de cette situation florissante à un seul joueur : son coq. Son cher coq qui, tous les jours, qu’ils soient de semaine, de fêtes, de relâche, réveille inlassablement les villageois à grands cris dès 4 heures du matin. Mais certains en auront marre. Et la tête du coq sera mise à prix. Pourtant, après son départ, un groupuscule formera un escadron pour récupérer la volaille. Le Coq de St-Victor, une ode à l'équilibre remplie d’humour et de situations cocasses !
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Coq de St-Victor
 Réalisation : Pierre Greco
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Benoît Brière : Narrateur
 Jeff Boudreault : Xavier
